--- a/MRR measure.xlsx
+++ b/MRR measure.xlsx
@@ -9107,10 +9107,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="16">
@@ -9178,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
@@ -9283,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -9871,13 +9871,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="14">
         <v>1</v>
       </c>
       <c r="D30" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="7"/>
@@ -9908,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="14">
         <v>0</v>
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -10007,7 +10007,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="14">
         <v>1</v>
@@ -10075,7 +10075,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="14">
         <v>1</v>
@@ -10310,7 +10310,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="7"/>
@@ -10372,13 +10372,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="14">
         <v>1</v>
       </c>
       <c r="D45" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -11176,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="7"/>
@@ -11445,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="14">
         <v>0</v>
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="14">
         <v>1</v>
@@ -25330,10 +25330,10 @@
         <v>11</v>
       </c>
       <c r="B47" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="14">
         <v>1</v>
@@ -25364,7 +25364,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="22">
         <v>1</v>
@@ -25432,10 +25432,10 @@
         <v>14</v>
       </c>
       <c r="B50" s="14">
+        <v>1</v>
+      </c>
+      <c r="C50" s="14">
         <v>0</v>
-      </c>
-      <c r="C50" s="14">
-        <v>1</v>
       </c>
       <c r="D50" s="14">
         <v>1</v>
@@ -25469,7 +25469,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="14">
         <v>1</v>
@@ -27028,10 +27028,10 @@
         <v>10</v>
       </c>
       <c r="B98" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" s="14">
         <v>1</v>
@@ -27062,10 +27062,10 @@
         <v>11</v>
       </c>
       <c r="B99" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" s="14">
         <v>1</v>
@@ -27427,10 +27427,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" s="14">
         <v>1</v>
@@ -27464,7 +27464,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" s="14">
         <v>1</v>
@@ -27498,7 +27498,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="14">
         <v>1</v>
@@ -27532,7 +27532,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" s="22">
         <v>1</v>
@@ -27826,13 +27826,13 @@
         <v>7</v>
       </c>
       <c r="B122" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" s="14">
         <v>1</v>
       </c>
       <c r="D122" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -27863,10 +27863,10 @@
         <v>0</v>
       </c>
       <c r="C123" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -28033,7 +28033,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" s="14">
         <v>1</v>
@@ -28067,7 +28067,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129" s="14">
         <v>1</v>
@@ -39867,10 +39867,10 @@
         <v>7</v>
       </c>
       <c r="B31" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="14">
         <v>1</v>
@@ -39901,10 +39901,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="14">
         <v>1</v>
@@ -41172,7 +41172,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -41998,13 +41998,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="7"/>
@@ -42437,7 +42437,7 @@
         <v>1</v>
       </c>
       <c r="D108" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="7"/>
@@ -42465,13 +42465,13 @@
         <v>7</v>
       </c>
       <c r="B109" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
@@ -42533,7 +42533,7 @@
         <v>10</v>
       </c>
       <c r="B111" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" s="14">
         <v>0</v>
@@ -42635,7 +42635,7 @@
         <v>13</v>
       </c>
       <c r="B114" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="14">
         <v>1</v>
@@ -55338,10 +55338,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="14">
         <v>1</v>
@@ -56244,7 +56244,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -56278,7 +56278,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -56343,10 +56343,10 @@
         <v>0</v>
       </c>
       <c r="C73" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -56374,13 +56374,13 @@
         <v>12</v>
       </c>
       <c r="B74" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="22">
         <v>1</v>
       </c>
       <c r="D74" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -56637,7 +56637,7 @@
         <v>6</v>
       </c>
       <c r="B82" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="14">
         <v>0</v>
@@ -57070,10 +57070,10 @@
         <v>6</v>
       </c>
       <c r="B95" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" s="14">
         <v>1</v>
